--- a/output/test_z100.0_results.xlsx
+++ b/output/test_z100.0_results.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="81">
   <si>
     <t>Channel G</t>
   </si>
@@ -234,6 +234,12 @@
   </si>
   <si>
     <t>True Positive Rate (Channel F)</t>
+  </si>
+  <si>
+    <t>FPR (Combined)</t>
+  </si>
+  <si>
+    <t>TPR (Combined)</t>
   </si>
   <si>
     <t>Confusion Matrix</t>
@@ -275,7 +281,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -294,6 +300,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD1DC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -307,11 +319,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -636,6 +649,254 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Combined ROC Curve (G+F)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Combined Channels</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="800080"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'ROC Data'!$H$2:$H$19</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>True Positive</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.1904761904761905</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.1904761904761905</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.3333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.4285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.8095238095238095</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'ROC Data'!$I$2:$I$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2105263157894737</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2631578947368421</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2894736842105263</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.4210526315789473</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4605263157894737</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5921052631578947</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.7105263157894737</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.8552631578947368</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.9210526315789473</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.9210526315789473</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.9473684210526315</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.9473684210526315</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="50020001"/>
+        <c:axId val="50020002"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="50020001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>False Positive Rate</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50020002"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="50020002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>True Positive Rate</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50020001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -663,6 +924,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4107,7 +4398,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4131,7 +4422,13 @@
         <v>72</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>73</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -4148,13 +4445,13 @@
         <v>0</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>49</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>24</v>
@@ -4234,6 +4531,12 @@
       <c r="E5">
         <v>0.2894736842105263</v>
       </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0.2105263157894737</v>
+      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6">
@@ -4249,11 +4552,14 @@
         <v>0.6842105263157895</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H6">
         <v>100</v>
       </c>
+      <c r="I6">
+        <v>0.2631578947368421</v>
+      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7">
@@ -4269,11 +4575,14 @@
         <v>0.7368421052631579</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H7">
         <v>3</v>
       </c>
+      <c r="I7">
+        <v>0.2894736842105263</v>
+      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8">
@@ -4289,11 +4598,14 @@
         <v>0.8947368421052632</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H8">
         <v>2.9</v>
       </c>
+      <c r="I8">
+        <v>0.4210526315789473</v>
+      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9">
@@ -4307,6 +4619,12 @@
       </c>
       <c r="E9">
         <v>0.8947368421052632</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0.4605263157894737</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -4322,6 +4640,12 @@
       <c r="E10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0.5921052631578947</v>
+      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11">
@@ -4336,6 +4660,12 @@
       <c r="E11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0.7105263157894737</v>
+      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12">
@@ -4350,12 +4680,72 @@
       <c r="E12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0.8552631578947368</v>
+      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13">
         <v>1</v>
       </c>
       <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0.9210526315789473</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="H14">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="I14">
+        <v>0.9210526315789473</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="H15">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="I15">
+        <v>0.9473684210526315</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="H16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="I16">
+        <v>0.9473684210526315</v>
+      </c>
+    </row>
+    <row r="17" spans="8:9">
+      <c r="H17">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="8:9">
+      <c r="H18">
+        <v>0.8095238095238095</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="8:9">
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
         <v>1</v>
       </c>
     </row>

--- a/output/test_z100.0_results.xlsx
+++ b/output/test_z100.0_results.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="83">
   <si>
     <t>Channel G</t>
   </si>
@@ -224,16 +224,16 @@
     <t>F True Negative</t>
   </si>
   <si>
-    <t>False Positive Rate (Channel G)</t>
-  </si>
-  <si>
-    <t>True Positive Rate (Channel G)</t>
-  </si>
-  <si>
-    <t>False Positive Rate (Channel F)</t>
-  </si>
-  <si>
-    <t>True Positive Rate (Channel F)</t>
+    <t>FPR (G)</t>
+  </si>
+  <si>
+    <t>TPR (G)</t>
+  </si>
+  <si>
+    <t>FPR (F)</t>
+  </si>
+  <si>
+    <t>TPR (F)</t>
   </si>
   <si>
     <t>FPR (Combined)</t>
@@ -242,22 +242,28 @@
     <t>TPR (Combined)</t>
   </si>
   <si>
-    <t>Confusion Matrix</t>
-  </si>
-  <si>
     <t>Channel</t>
   </si>
   <si>
-    <t>False Positive</t>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>FN</t>
+  </si>
+  <si>
+    <t>TN</t>
   </si>
   <si>
     <t>Z Value</t>
   </si>
   <si>
-    <t>Critical Value (Channel G)</t>
-  </si>
-  <si>
-    <t>Critical Value (Channel F)</t>
+    <t>Critical Value (G)</t>
+  </si>
+  <si>
+    <t>Critical Value (F)</t>
   </si>
 </sst>
 </file>
@@ -323,8 +329,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -373,9 +379,6 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>'ROC Data'!$A$2:$A$13</c:f>
@@ -481,9 +484,6 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>'ROC Data'!$D$2:$D$12</c:f>
@@ -636,7 +636,7 @@
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -688,16 +688,13 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-          </c:marker>
           <c:xVal>
             <c:strRef>
               <c:f>'ROC Data'!$H$2:$H$19</c:f>
               <c:strCache>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>True Positive</c:v>
+                  <c:v>TP</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>11</c:v>
@@ -884,7 +881,7 @@
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4421,13 +4418,10 @@
       <c r="E1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>74</v>
       </c>
     </row>
@@ -4444,20 +4438,20 @@
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>13</v>
+      <c r="J2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -4551,8 +4545,8 @@
       <c r="E6">
         <v>0.6842105263157895</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>78</v>
+      <c r="G6" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="H6">
         <v>100</v>
@@ -4575,7 +4569,7 @@
         <v>0.7368421052631579</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H7">
         <v>3</v>
@@ -4598,7 +4592,7 @@
         <v>0.8947368421052632</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H8">
         <v>2.9</v>
